--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_otter_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_otter_1_1.xlsx
@@ -2408,7 +2408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mayer"]  Let’s kick it off!
+    <t xml:space="preserve">[name="Mayer"]  Let's kick it off!
 </t>
   </si>
   <si>
